--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2565390.968374453</v>
+        <v>-2567989.763345116</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.77502760217099</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>9.347800972393669</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9811492522526</v>
@@ -677,7 +677,7 @@
         <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>43.86785806562904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>59.71954014907093</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>199.4817319598151</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>79.47861023109434</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.13067551456432</v>
       </c>
       <c r="S4" t="n">
-        <v>50.84920971980842</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6628404482119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2132921354687</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506823</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.78377796467394</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>143.0816436491947</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>188.9524625330048</v>
+        <v>125.0816591241466</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>179.0530003794244</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>93.71722355140965</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>26.13627195705814</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176126</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.8518831495026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.07916359105448</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>100.5858322992705</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>126.9263824507422</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5665975534133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972046</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969967</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065887</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096038</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1180.97044850164</v>
+        <v>1997.883647427591</v>
       </c>
       <c r="C2" t="n">
-        <v>1180.97044850164</v>
+        <v>1628.921130487179</v>
       </c>
       <c r="D2" t="n">
-        <v>822.7047498948893</v>
+        <v>1619.478907282741</v>
       </c>
       <c r="E2" t="n">
-        <v>822.7047498948893</v>
+        <v>1233.690654684497</v>
       </c>
       <c r="F2" t="n">
         <v>822.7047498948893</v>
@@ -4322,10 +4322,10 @@
         <v>407.572275902715</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890564</v>
+        <v>109.3739563890565</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599687</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J2" t="n">
         <v>248.9490509731313</v>
@@ -4334,46 +4334,46 @@
         <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679884</v>
+        <v>1017.035607679883</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999099</v>
+        <v>1540.237590999098</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778083</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854079</v>
+        <v>2569.579722854076</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302313</v>
+        <v>2955.894353302311</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704725</v>
+        <v>3197.827805704723</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299843</v>
+        <v>3253.149432299841</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637408</v>
+        <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674415</v>
+        <v>2935.250468674413</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041277</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697707</v>
+        <v>2350.652302697705</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427592</v>
+        <v>1997.883647427591</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166513</v>
+        <v>1997.883647427591</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.278557190701</v>
+        <v>1997.883647427591</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1679.658324549948</v>
+        <v>890.9404241458719</v>
       </c>
       <c r="C3" t="n">
-        <v>1505.205295268821</v>
+        <v>716.4873948647449</v>
       </c>
       <c r="D3" t="n">
-        <v>1356.27088560757</v>
+        <v>567.5529852034936</v>
       </c>
       <c r="E3" t="n">
-        <v>1197.033430602114</v>
+        <v>408.315530198038</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872628999</v>
+        <v>261.7809722249229</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774178</v>
+        <v>125.3857564733412</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836747</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555381</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749456</v>
+        <v>155.7664206654044</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151132</v>
+        <v>388.947857741591</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831876</v>
+        <v>748.8116174223339</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.228098874591</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529492</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.03685666879</v>
+        <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234326</v>
+        <v>2361.410240824782</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299843</v>
+        <v>2515.033852890299</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515483</v>
+        <v>2515.033852890299</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.97667611824</v>
+        <v>2384.999433493057</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.20422745452</v>
+        <v>2192.226984829337</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721553</v>
+        <v>1964.157025096371</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.982159489811</v>
+        <v>1729.004916864628</v>
       </c>
       <c r="W3" t="n">
-        <v>2263.485460540503</v>
+        <v>1474.767560136427</v>
       </c>
       <c r="X3" t="n">
-        <v>2055.63396033497</v>
+        <v>1266.916059930894</v>
       </c>
       <c r="Y3" t="n">
-        <v>1847.873661570016</v>
+        <v>1059.15576116594</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="C4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="D4" t="n">
-        <v>330.9281240433942</v>
+        <v>459.9641218720016</v>
       </c>
       <c r="E4" t="n">
-        <v>330.9281240433942</v>
+        <v>459.9641218720016</v>
       </c>
       <c r="F4" t="n">
-        <v>330.9281240433942</v>
+        <v>313.0741743740912</v>
       </c>
       <c r="G4" t="n">
-        <v>163.1983627911527</v>
+        <v>145.3444131218497</v>
       </c>
       <c r="H4" t="n">
-        <v>163.1983627911527</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599687</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274277</v>
+        <v>75.02005212274264</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>170.2650045033533</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633496</v>
+        <v>322.0515495633493</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992789</v>
+        <v>485.3474622992784</v>
       </c>
       <c r="N4" t="n">
-        <v>652.618089120607</v>
+        <v>652.6180891206066</v>
       </c>
       <c r="O4" t="n">
-        <v>786.806497607967</v>
+        <v>786.8064976079664</v>
       </c>
       <c r="P4" t="n">
-        <v>882.565891698328</v>
+        <v>882.5658916983273</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529789</v>
+        <v>893.2769546529785</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529789</v>
+        <v>802.2358682746307</v>
       </c>
       <c r="S4" t="n">
-        <v>841.9141165521623</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="T4" t="n">
-        <v>620.0324595337665</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="U4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="V4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="W4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="X4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
       <c r="Y4" t="n">
-        <v>330.9281240433942</v>
+        <v>610.0807612843373</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678284</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>177.307148515524</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.8106393615039</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>710.9737500716185</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>710.9737500716185</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>563.0606564892254</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>416.170708991315</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>248.467872366034</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4762,13 +4762,13 @@
         <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.800190259521</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>796.8106393615039</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y7" t="n">
-        <v>796.8106393615039</v>
+        <v>879.9099329995254</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1746.43293154362</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1746.43293154362</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1746.43293154362</v>
+        <v>1329.347729069232</v>
       </c>
       <c r="V10" t="n">
-        <v>1746.43293154362</v>
+        <v>1074.663240863345</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>1074.663240863345</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098236</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819167</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>664.302781469581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871878</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892775</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041574</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270448</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254208</v>
+        <v>801.6918836311993</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975139</v>
+        <v>632.7557007032924</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851782</v>
+        <v>482.6390612909566</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851782</v>
+        <v>334.7259677085635</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851782</v>
+        <v>187.8360202106532</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>187.8360202106532</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2345.361232772917</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>983.340348461439</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556606</v>
+        <v>983.340348461439</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851666</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572597</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449239</v>
+        <v>363.7369613277352</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7425191625308</v>
+        <v>363.7369613277352</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7425191625308</v>
+        <v>363.7369613277352</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7425191625308</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154063</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,7 +6385,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L28" t="n">
         <v>898.265941231132</v>
@@ -6412,22 +6412,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,10 +6549,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6598,16 +6598,16 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6844,25 +6844,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
         <v>1896.176478190825</v>
@@ -7072,25 +7072,25 @@
         <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.9588140613096</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>345.3352406482893</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22641,10 +22641,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>30.18440251173475</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>19.91189527285532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.116953416516765</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>52.2132512011045</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>65.51339524973224</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>97.15402040370429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>139.3843462005819</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891658</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>47.21554925516941</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>38.59775584152666</v>
       </c>
       <c r="H25" t="n">
-        <v>5.728115292810344</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1405136.707730519</v>
+        <v>1405136.70773052</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1405136.70773052</v>
+        <v>1405136.707730519</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
@@ -26341,7 +26341,7 @@
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
@@ -26350,7 +26350,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833815</v>
+        <v>19312.30676833899</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097968</v>
+        <v>232219.4755097967</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940648</v>
+        <v>4661.989000940824</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493624</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493624</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493628</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597296</v>
       </c>
       <c r="C6" t="n">
-        <v>-199514.0459663184</v>
+        <v>-199514.0459663193</v>
       </c>
       <c r="D6" t="n">
         <v>-180201.7391979803</v>
       </c>
       <c r="E6" t="n">
-        <v>-419963.134750855</v>
+        <v>-419997.8726762905</v>
       </c>
       <c r="F6" t="n">
-        <v>-94550.67294349968</v>
+        <v>-94585.41086893545</v>
       </c>
       <c r="G6" t="n">
-        <v>-94550.6729434997</v>
+        <v>-94585.4108689354</v>
       </c>
       <c r="H6" t="n">
-        <v>-94550.6729434997</v>
+        <v>-94585.41086893542</v>
       </c>
       <c r="I6" t="n">
-        <v>-94550.67294349971</v>
+        <v>-94585.4108689354</v>
       </c>
       <c r="J6" t="n">
         <v>-336455.2144920413</v>
       </c>
       <c r="K6" t="n">
-        <v>-108897.7279831852</v>
+        <v>-108897.7279831854</v>
       </c>
       <c r="L6" t="n">
-        <v>-104235.7389822445</v>
+        <v>-104235.7389822446</v>
       </c>
       <c r="M6" t="n">
-        <v>-189290.7669177564</v>
+        <v>-189290.7669177563</v>
       </c>
       <c r="N6" t="n">
         <v>-104235.7389822445</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749608</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128048</v>
+        <v>14.78162020128116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749608</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733148</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749608</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733148</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749608</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733148</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>184.9206826248133</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>60.97123694964684</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.4413546873963</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>197.2854761230488</v>
+        <v>261.156279531907</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.71602495201745</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.4946146542032</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882478</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.789401826822</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946375</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948271</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648634</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167784</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277406</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878294</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233505</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043456</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305981</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145093</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714468</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690986</v>
+        <v>218.4572549690985</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018198</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321398</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136493</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751531</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851486</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087668</v>
+        <v>295.1571398087667</v>
       </c>
       <c r="R3" t="n">
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738335</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1521219453384931</v>
+        <v>0.152121945338493</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.29645452355399</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776859</v>
+        <v>296.6457735776858</v>
       </c>
       <c r="O4" t="n">
-        <v>274.000385408772</v>
+        <v>274.0003854087719</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260517</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.7830421165819</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069638</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,10 +33035,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732313</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001357</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.6323819496569</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248399</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375907</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060538</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.2167984325599</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.377224648901</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.88043090415954</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243183</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274608</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522656</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916309</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918198</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407041</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.564609662157</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227453</v>
+        <v>155.1753657227452</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.05763987550087</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667733</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999286</v>
+        <v>164.9453663999285</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124527</v>
+        <v>168.9602291124526</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569291</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733418</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.81925550974873</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287869</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
